--- a/13/1/1/Operaciones financieras 1990 a 2021 - Trimestral.xlsx
+++ b/13/1/1/Operaciones financieras 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Serie</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3918,16 +3921,16 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>804061</v>
+        <v>805580</v>
       </c>
       <c r="C41">
-        <v>-1004055</v>
+        <v>-1004074</v>
       </c>
       <c r="D41">
         <v>177660</v>
       </c>
       <c r="E41">
-        <v>1181715</v>
+        <v>1181734</v>
       </c>
       <c r="F41">
         <v>913454</v>
@@ -3942,7 +3945,7 @@
         <v>-10842</v>
       </c>
       <c r="J41">
-        <v>905504</v>
+        <v>907042</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3960,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>958771</v>
+        <v>958728</v>
       </c>
       <c r="Q41">
         <v>2519787</v>
@@ -3972,19 +3975,19 @@
         <v>457380</v>
       </c>
       <c r="V41">
-        <v>-1468014</v>
+        <v>-1468057</v>
       </c>
       <c r="W41">
         <v>1527</v>
       </c>
       <c r="Z41">
-        <v>1469541</v>
+        <v>1469584</v>
       </c>
       <c r="AA41">
         <v>-93002</v>
       </c>
       <c r="AB41">
-        <v>-154709</v>
+        <v>-153147</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -3992,16 +3995,16 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>125417</v>
+        <v>125611</v>
       </c>
       <c r="C42">
-        <v>37032</v>
+        <v>37036</v>
       </c>
       <c r="D42">
         <v>251597</v>
       </c>
       <c r="E42">
-        <v>214565</v>
+        <v>214561</v>
       </c>
       <c r="F42">
         <v>-98513</v>
@@ -4016,7 +4019,7 @@
         <v>14019</v>
       </c>
       <c r="J42">
-        <v>172878</v>
+        <v>173069</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4034,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>4653345</v>
+        <v>4653378</v>
       </c>
       <c r="Q42">
         <v>1628492</v>
@@ -4046,19 +4049,19 @@
         <v>29128</v>
       </c>
       <c r="V42">
-        <v>3118311</v>
+        <v>3118344</v>
       </c>
       <c r="W42">
         <v>6344083</v>
       </c>
       <c r="Z42">
-        <v>3225772</v>
+        <v>3225739</v>
       </c>
       <c r="AA42">
         <v>-93458</v>
       </c>
       <c r="AB42">
-        <v>-4527928</v>
+        <v>-4527767</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4066,16 +4069,16 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>-4853773</v>
+        <v>-4854321</v>
       </c>
       <c r="C43">
-        <v>735761</v>
+        <v>735754</v>
       </c>
       <c r="D43">
         <v>938430</v>
       </c>
       <c r="E43">
-        <v>202669</v>
+        <v>202676</v>
       </c>
       <c r="F43">
         <v>-5429815</v>
@@ -4090,7 +4093,7 @@
         <v>22717</v>
       </c>
       <c r="J43">
-        <v>-182437</v>
+        <v>-182978</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4132,7 +4135,7 @@
         <v>-105228</v>
       </c>
       <c r="AB43">
-        <v>-6167522</v>
+        <v>-6168071</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4140,16 +4143,16 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>-2268712</v>
+        <v>-2265355</v>
       </c>
       <c r="C44">
-        <v>432179</v>
+        <v>429461</v>
       </c>
       <c r="D44">
         <v>820549</v>
       </c>
       <c r="E44">
-        <v>388370</v>
+        <v>391088</v>
       </c>
       <c r="F44">
         <v>-1556090</v>
@@ -4164,7 +4167,7 @@
         <v>-5542</v>
       </c>
       <c r="J44">
-        <v>-1139258</v>
+        <v>-1133184</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4182,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>1161123</v>
+        <v>1161074</v>
       </c>
       <c r="Q44">
         <v>274869</v>
@@ -4200,7 +4203,7 @@
         <v>28308</v>
       </c>
       <c r="V44">
-        <v>991113</v>
+        <v>991064</v>
       </c>
       <c r="W44">
         <v>2460674</v>
@@ -4212,13 +4215,13 @@
         <v>12277</v>
       </c>
       <c r="Z44">
-        <v>1469561</v>
+        <v>1469611</v>
       </c>
       <c r="AA44">
         <v>-104859</v>
       </c>
       <c r="AB44">
-        <v>-3429835</v>
+        <v>-3426429</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4226,16 +4229,16 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>-474119</v>
+        <v>-461109</v>
       </c>
       <c r="C45">
-        <v>-1133805</v>
+        <v>-1153135</v>
       </c>
       <c r="D45">
-        <v>183791</v>
+        <v>183631</v>
       </c>
       <c r="E45">
-        <v>1317596</v>
+        <v>1336766</v>
       </c>
       <c r="F45">
         <v>-746309</v>
@@ -4250,7 +4253,7 @@
         <v>-13234</v>
       </c>
       <c r="J45">
-        <v>1419229</v>
+        <v>1451569</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4268,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>632323</v>
+        <v>633621</v>
       </c>
       <c r="Q45">
         <v>3098925</v>
@@ -4280,19 +4283,93 @@
         <v>11715</v>
       </c>
       <c r="V45">
-        <v>-2387098</v>
+        <v>-2385827</v>
       </c>
       <c r="W45">
-        <v>846771</v>
+        <v>847461</v>
       </c>
       <c r="Z45">
-        <v>3233869</v>
+        <v>3233288</v>
       </c>
       <c r="AA45">
-        <v>-79504</v>
+        <v>-79477</v>
       </c>
       <c r="AB45">
-        <v>-1106442</v>
+        <v>-1094730</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>-739513</v>
+      </c>
+      <c r="C46">
+        <v>598500</v>
+      </c>
+      <c r="D46">
+        <v>971877</v>
+      </c>
+      <c r="E46">
+        <v>373377</v>
+      </c>
+      <c r="F46">
+        <v>-2079742</v>
+      </c>
+      <c r="G46">
+        <v>2982398</v>
+      </c>
+      <c r="H46">
+        <v>5062141</v>
+      </c>
+      <c r="I46">
+        <v>2987</v>
+      </c>
+      <c r="J46">
+        <v>738742</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>3522788</v>
+      </c>
+      <c r="Q46">
+        <v>2435236</v>
+      </c>
+      <c r="R46">
+        <v>2454077</v>
+      </c>
+      <c r="U46">
+        <v>18841</v>
+      </c>
+      <c r="V46">
+        <v>1164892</v>
+      </c>
+      <c r="W46">
+        <v>2518003</v>
+      </c>
+      <c r="Z46">
+        <v>1353111</v>
+      </c>
+      <c r="AA46">
+        <v>-77340</v>
+      </c>
+      <c r="AB46">
+        <v>-4262301</v>
       </c>
     </row>
   </sheetData>
